--- a/uploads/案件一覧.xlsx
+++ b/uploads/案件一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bi17068/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bi17006\vagrant\ubuntu64_18\workspace\lexsol\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6360C1FD-4D30-944F-9990-828B0290F77F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C321F6-5233-4CC9-A263-CC706A3C9FEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="23700" windowHeight="12440" tabRatio="897" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="897" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="1" r:id="rId1"/>
@@ -2462,31 +2462,31 @@
       <selection activeCell="H9" sqref="H9"/>
       <selection pane="topRight" activeCell="H9" sqref="H9"/>
       <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
-      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="62" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="62" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="35.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" style="66" customWidth="1"/>
-    <col min="7" max="7" width="38.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="44.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.1796875" style="66" customWidth="1"/>
+    <col min="7" max="7" width="38.6328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="44.36328125" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="2"/>
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="14.1640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.36328125" style="2" customWidth="1"/>
     <col min="15" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="38.83203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="38.81640625" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="3" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="2:17" s="3" customFormat="1" ht="13.5" thickBot="1">
       <c r="B1" s="4"/>
       <c r="C1" s="56"/>
       <c r="D1" s="6"/>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="P2" s="67"/>
     </row>
-    <row r="3" spans="2:17" s="9" customFormat="1" ht="15" thickBot="1">
+    <row r="3" spans="2:17" s="9" customFormat="1" ht="13.5" thickBot="1">
       <c r="B3" s="14"/>
       <c r="C3" s="58"/>
       <c r="D3" s="15"/>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="P3" s="68"/>
     </row>
-    <row r="4" spans="2:17" s="8" customFormat="1" ht="30">
+    <row r="4" spans="2:17" s="8" customFormat="1" ht="39">
       <c r="B4" s="18" t="s">
         <v>12</v>
       </c>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="Q4" s="9"/>
     </row>
-    <row r="5" spans="2:17" s="21" customFormat="1" ht="15">
+    <row r="5" spans="2:17" s="21" customFormat="1" ht="14">
       <c r="B5" s="30">
         <v>1</v>
       </c>
@@ -2624,7 +2624,9 @@
       <c r="L5" s="39">
         <v>43951</v>
       </c>
-      <c r="M5" s="39"/>
+      <c r="M5" s="39">
+        <v>43945</v>
+      </c>
       <c r="N5" s="22">
         <v>2</v>
       </c>
@@ -2636,7 +2638,7 @@
       </c>
       <c r="Q5" s="24"/>
     </row>
-    <row r="6" spans="2:17" s="21" customFormat="1" ht="15">
+    <row r="6" spans="2:17" s="21" customFormat="1" ht="14">
       <c r="B6" s="30">
         <v>2</v>
       </c>
@@ -2670,7 +2672,9 @@
       <c r="L6" s="39">
         <v>43952</v>
       </c>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39">
+        <v>43946</v>
+      </c>
       <c r="N6" s="22">
         <v>1</v>
       </c>
@@ -2682,7 +2686,7 @@
       </c>
       <c r="Q6" s="24"/>
     </row>
-    <row r="7" spans="2:17" s="21" customFormat="1" ht="15">
+    <row r="7" spans="2:17" s="21" customFormat="1" ht="14">
       <c r="B7" s="30">
         <v>3</v>
       </c>
@@ -2716,7 +2720,9 @@
       <c r="L7" s="39">
         <v>43953</v>
       </c>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39">
+        <v>43947</v>
+      </c>
       <c r="N7" s="22">
         <v>2</v>
       </c>
@@ -2728,7 +2734,7 @@
       </c>
       <c r="Q7" s="24"/>
     </row>
-    <row r="8" spans="2:17" s="21" customFormat="1" ht="15">
+    <row r="8" spans="2:17" s="21" customFormat="1" ht="14">
       <c r="B8" s="30">
         <v>4</v>
       </c>
@@ -2762,7 +2768,9 @@
       <c r="L8" s="39">
         <v>43954</v>
       </c>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39">
+        <v>43948</v>
+      </c>
       <c r="N8" s="22">
         <v>1</v>
       </c>
@@ -2774,7 +2782,7 @@
       </c>
       <c r="Q8" s="24"/>
     </row>
-    <row r="9" spans="2:17" s="21" customFormat="1" ht="15">
+    <row r="9" spans="2:17" s="21" customFormat="1" ht="14">
       <c r="B9" s="30">
         <v>5</v>
       </c>
@@ -2808,7 +2816,9 @@
       <c r="L9" s="39">
         <v>43955</v>
       </c>
-      <c r="M9" s="39"/>
+      <c r="M9" s="39">
+        <v>43949</v>
+      </c>
       <c r="N9" s="22">
         <v>1</v>
       </c>
@@ -2820,7 +2830,7 @@
       </c>
       <c r="Q9" s="24"/>
     </row>
-    <row r="10" spans="2:17" s="21" customFormat="1" ht="15">
+    <row r="10" spans="2:17" s="21" customFormat="1" ht="14">
       <c r="B10" s="30">
         <v>6</v>
       </c>
@@ -2855,7 +2865,7 @@
         <v>43926</v>
       </c>
       <c r="M10" s="39">
-        <v>43945</v>
+        <v>43950</v>
       </c>
       <c r="N10" s="22">
         <v>4</v>
@@ -2870,7 +2880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:17" s="21" customFormat="1" ht="15">
+    <row r="11" spans="2:17" s="21" customFormat="1" ht="14">
       <c r="B11" s="30">
         <v>7</v>
       </c>
@@ -2904,7 +2914,9 @@
       <c r="L11" s="39">
         <v>43957</v>
       </c>
-      <c r="M11" s="39"/>
+      <c r="M11" s="39">
+        <v>43951</v>
+      </c>
       <c r="N11" s="22">
         <v>3</v>
       </c>
@@ -2916,7 +2928,7 @@
       </c>
       <c r="Q11" s="24"/>
     </row>
-    <row r="12" spans="2:17" s="21" customFormat="1" ht="15">
+    <row r="12" spans="2:17" s="21" customFormat="1" ht="14">
       <c r="B12" s="30">
         <v>8</v>
       </c>
@@ -2950,7 +2962,9 @@
       <c r="L12" s="39">
         <v>43958</v>
       </c>
-      <c r="M12" s="39"/>
+      <c r="M12" s="39">
+        <v>43952</v>
+      </c>
       <c r="N12" s="22">
         <v>5</v>
       </c>
@@ -2962,7 +2976,7 @@
       </c>
       <c r="Q12" s="24"/>
     </row>
-    <row r="13" spans="2:17" s="21" customFormat="1" ht="15">
+    <row r="13" spans="2:17" s="21" customFormat="1" ht="14">
       <c r="B13" s="30">
         <v>9</v>
       </c>
@@ -2996,7 +3010,9 @@
       <c r="L13" s="39">
         <v>43959</v>
       </c>
-      <c r="M13" s="39"/>
+      <c r="M13" s="39">
+        <v>43953</v>
+      </c>
       <c r="N13" s="22">
         <v>4</v>
       </c>
@@ -3008,7 +3024,7 @@
       </c>
       <c r="Q13" s="24"/>
     </row>
-    <row r="14" spans="2:17" s="21" customFormat="1" ht="15">
+    <row r="14" spans="2:17" s="21" customFormat="1" ht="14">
       <c r="B14" s="30">
         <v>10</v>
       </c>
@@ -3042,7 +3058,9 @@
       <c r="L14" s="39">
         <v>43960</v>
       </c>
-      <c r="M14" s="39"/>
+      <c r="M14" s="39">
+        <v>43954</v>
+      </c>
       <c r="N14" s="22">
         <v>5</v>
       </c>
@@ -3198,7 +3216,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="24"/>
     </row>
-    <row r="23" spans="2:17" s="21" customFormat="1" ht="15" thickBot="1">
+    <row r="23" spans="2:17" s="21" customFormat="1" ht="13.5" thickBot="1">
       <c r="B23" s="42"/>
       <c r="C23" s="60"/>
       <c r="D23" s="54"/>
@@ -3234,7 +3252,7 @@
       <c r="P24" s="52"/>
       <c r="Q24" s="24"/>
     </row>
-    <row r="28" spans="2:17">
+    <row r="28" spans="2:17" ht="14">
       <c r="G28" s="55"/>
     </row>
   </sheetData>
@@ -3299,28 +3317,28 @@
       <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="62" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="62" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="35.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" style="66" customWidth="1"/>
-    <col min="7" max="7" width="38.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="44.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.1796875" style="66" customWidth="1"/>
+    <col min="7" max="7" width="38.6328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="44.36328125" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="2"/>
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="14.1640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.36328125" style="2" customWidth="1"/>
     <col min="15" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="38.83203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="38.81640625" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="3" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="2:17" s="3" customFormat="1" ht="13.5" thickBot="1">
       <c r="B1" s="4"/>
       <c r="C1" s="56"/>
       <c r="D1" s="6"/>
@@ -3355,7 +3373,7 @@
       </c>
       <c r="P2" s="67"/>
     </row>
-    <row r="3" spans="2:17" s="9" customFormat="1" ht="15" thickBot="1">
+    <row r="3" spans="2:17" s="9" customFormat="1" ht="13.5" thickBot="1">
       <c r="B3" s="14"/>
       <c r="C3" s="58"/>
       <c r="D3" s="15"/>
@@ -3376,7 +3394,7 @@
       </c>
       <c r="P3" s="68"/>
     </row>
-    <row r="4" spans="2:17" s="8" customFormat="1" ht="30">
+    <row r="4" spans="2:17" s="8" customFormat="1" ht="39">
       <c r="B4" s="18" t="s">
         <v>12</v>
       </c>
@@ -3424,7 +3442,7 @@
       </c>
       <c r="Q4" s="9"/>
     </row>
-    <row r="5" spans="2:17" s="21" customFormat="1" ht="30">
+    <row r="5" spans="2:17" s="21" customFormat="1" ht="26">
       <c r="B5" s="30">
         <v>1</v>
       </c>
@@ -3458,7 +3476,7 @@
       <c r="P5" s="33"/>
       <c r="Q5" s="24"/>
     </row>
-    <row r="6" spans="2:17" s="21" customFormat="1" ht="150">
+    <row r="6" spans="2:17" s="21" customFormat="1" ht="130">
       <c r="B6" s="30"/>
       <c r="C6" s="59"/>
       <c r="D6" s="32"/>
@@ -3484,7 +3502,7 @@
       <c r="P6" s="33"/>
       <c r="Q6" s="24"/>
     </row>
-    <row r="7" spans="2:17" s="21" customFormat="1" ht="15">
+    <row r="7" spans="2:17" s="21" customFormat="1">
       <c r="B7" s="30"/>
       <c r="C7" s="59"/>
       <c r="D7" s="32"/>
@@ -3780,7 +3798,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="24"/>
     </row>
-    <row r="23" spans="2:17" s="21" customFormat="1" ht="15" thickBot="1">
+    <row r="23" spans="2:17" s="21" customFormat="1" ht="13.5" thickBot="1">
       <c r="B23" s="42"/>
       <c r="C23" s="60"/>
       <c r="D23" s="54"/>
@@ -3816,7 +3834,7 @@
       <c r="P24" s="52"/>
       <c r="Q24" s="24"/>
     </row>
-    <row r="28" spans="2:17">
+    <row r="28" spans="2:17" ht="14">
       <c r="G28" s="55"/>
     </row>
   </sheetData>
@@ -3859,7 +3877,7 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="71"/>
   </cols>
